--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H2">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0605245143856247</v>
+        <v>0.1016456666666667</v>
       </c>
       <c r="N2">
-        <v>0.0605245143856247</v>
+        <v>0.304937</v>
       </c>
       <c r="O2">
-        <v>0.2048014662921517</v>
+        <v>0.1609821199020816</v>
       </c>
       <c r="P2">
-        <v>0.2048014662921517</v>
+        <v>0.1609821199020816</v>
       </c>
       <c r="Q2">
-        <v>1.710083782789063</v>
+        <v>2.878263953851334</v>
       </c>
       <c r="R2">
-        <v>1.710083782789063</v>
+        <v>25.904375584662</v>
       </c>
       <c r="S2">
-        <v>0.05003578633102836</v>
+        <v>0.03835521019324913</v>
       </c>
       <c r="T2">
-        <v>0.05003578633102836</v>
+        <v>0.03835521019324913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H3">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.235003225143768</v>
+        <v>0.1554283333333333</v>
       </c>
       <c r="N3">
-        <v>0.235003225143768</v>
+        <v>0.466285</v>
       </c>
       <c r="O3">
-        <v>0.7951985337078483</v>
+        <v>0.2461608390537786</v>
       </c>
       <c r="P3">
-        <v>0.7951985337078483</v>
+        <v>0.2461608390537786</v>
       </c>
       <c r="Q3">
-        <v>6.639874905248887</v>
+        <v>4.401208471656667</v>
       </c>
       <c r="R3">
-        <v>6.639874905248887</v>
+        <v>39.61087624491</v>
       </c>
       <c r="S3">
-        <v>0.1942778274184539</v>
+        <v>0.05864968562345391</v>
       </c>
       <c r="T3">
-        <v>0.1942778274184539</v>
+        <v>0.05864968562345392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H4">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0605245143856247</v>
+        <v>0.1021786666666667</v>
       </c>
       <c r="N4">
-        <v>0.0605245143856247</v>
+        <v>0.306536</v>
       </c>
       <c r="O4">
-        <v>0.2048014662921517</v>
+        <v>0.1618262628224993</v>
       </c>
       <c r="P4">
-        <v>0.2048014662921517</v>
+        <v>0.1618262628224993</v>
       </c>
       <c r="Q4">
-        <v>1.939219094617108</v>
+        <v>2.893356724037333</v>
       </c>
       <c r="R4">
-        <v>1.939219094617108</v>
+        <v>26.040210516336</v>
       </c>
       <c r="S4">
-        <v>0.05674011603633836</v>
+        <v>0.03855633364202379</v>
       </c>
       <c r="T4">
-        <v>0.05674011603633836</v>
+        <v>0.03855633364202381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H5">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.235003225143768</v>
+        <v>0.272157</v>
       </c>
       <c r="N5">
-        <v>0.235003225143768</v>
+        <v>0.8164709999999999</v>
       </c>
       <c r="O5">
-        <v>0.7951985337078483</v>
+        <v>0.4310307782216405</v>
       </c>
       <c r="P5">
-        <v>0.7951985337078483</v>
+        <v>0.4310307782216405</v>
       </c>
       <c r="Q5">
-        <v>7.529556347892612</v>
+        <v>7.706572336794</v>
       </c>
       <c r="R5">
-        <v>7.529556347892612</v>
+        <v>69.359151031146</v>
       </c>
       <c r="S5">
-        <v>0.220309248226503</v>
+        <v>0.1026963498089517</v>
       </c>
       <c r="T5">
-        <v>0.220309248226503</v>
+        <v>0.1026963498089517</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H6">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J6">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0605245143856247</v>
+        <v>0.1016456666666667</v>
       </c>
       <c r="N6">
-        <v>0.0605245143856247</v>
+        <v>0.304937</v>
       </c>
       <c r="O6">
-        <v>0.2048014662921517</v>
+        <v>0.1609821199020816</v>
       </c>
       <c r="P6">
-        <v>0.2048014662921517</v>
+        <v>0.1609821199020816</v>
       </c>
       <c r="Q6">
-        <v>1.144352128718871</v>
+        <v>3.273876715234334</v>
       </c>
       <c r="R6">
-        <v>1.144352128718871</v>
+        <v>29.464890437109</v>
       </c>
       <c r="S6">
-        <v>0.03348289667226068</v>
+        <v>0.04362707228139186</v>
       </c>
       <c r="T6">
-        <v>0.03348289667226068</v>
+        <v>0.04362707228139187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H7">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.235003225143768</v>
+        <v>0.1554283333333333</v>
       </c>
       <c r="N7">
-        <v>0.235003225143768</v>
+        <v>0.466285</v>
       </c>
       <c r="O7">
-        <v>0.7951985337078483</v>
+        <v>0.2461608390537786</v>
       </c>
       <c r="P7">
-        <v>0.7951985337078483</v>
+        <v>0.2461608390537786</v>
       </c>
       <c r="Q7">
-        <v>4.44326474452382</v>
+        <v>5.006147512971667</v>
       </c>
       <c r="R7">
-        <v>4.44326474452382</v>
+        <v>45.055327616745</v>
       </c>
       <c r="S7">
-        <v>0.1300066392107341</v>
+        <v>0.0667109907906512</v>
       </c>
       <c r="T7">
-        <v>0.1300066392107341</v>
+        <v>0.06671099079065121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H8">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J8">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.0605245143856247</v>
+        <v>0.1021786666666667</v>
       </c>
       <c r="N8">
-        <v>0.0605245143856247</v>
+        <v>0.306536</v>
       </c>
       <c r="O8">
-        <v>0.2048014662921517</v>
+        <v>0.1618262628224993</v>
       </c>
       <c r="P8">
-        <v>0.2048014662921517</v>
+        <v>0.1618262628224993</v>
       </c>
       <c r="Q8">
-        <v>2.189282494841474</v>
+        <v>3.291043962461333</v>
       </c>
       <c r="R8">
-        <v>2.189282494841474</v>
+        <v>29.619395662152</v>
       </c>
       <c r="S8">
-        <v>0.0640567861251162</v>
+        <v>0.0438558398254352</v>
       </c>
       <c r="T8">
-        <v>0.0640567861251162</v>
+        <v>0.04385583982543521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H9">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J9">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.235003225143768</v>
+        <v>0.272157</v>
       </c>
       <c r="N9">
-        <v>0.235003225143768</v>
+        <v>0.8164709999999999</v>
       </c>
       <c r="O9">
-        <v>0.7951985337078483</v>
+        <v>0.4310307782216405</v>
       </c>
       <c r="P9">
-        <v>0.7951985337078483</v>
+        <v>0.4310307782216405</v>
       </c>
       <c r="Q9">
-        <v>8.500496902140171</v>
+        <v>8.765828336883001</v>
       </c>
       <c r="R9">
-        <v>8.500496902140171</v>
+        <v>78.89245503194699</v>
       </c>
       <c r="S9">
-        <v>0.2487182505230025</v>
+        <v>0.11681179828181</v>
       </c>
       <c r="T9">
-        <v>0.2487182505230025</v>
+        <v>0.11681179828181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274369212109465</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H10">
-        <v>0.274369212109465</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I10">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J10">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.0605245143856247</v>
+        <v>0.1016456666666667</v>
       </c>
       <c r="N10">
-        <v>0.0605245143856247</v>
+        <v>0.304937</v>
       </c>
       <c r="O10">
-        <v>0.2048014662921517</v>
+        <v>0.1609821199020816</v>
       </c>
       <c r="P10">
-        <v>0.2048014662921517</v>
+        <v>0.1609821199020816</v>
       </c>
       <c r="Q10">
-        <v>0.01660606332529183</v>
+        <v>1.933382133706556</v>
       </c>
       <c r="R10">
-        <v>0.01660606332529183</v>
+        <v>17.400439203359</v>
       </c>
       <c r="S10">
-        <v>0.0004858811274080824</v>
+        <v>0.02576389077275629</v>
       </c>
       <c r="T10">
-        <v>0.0004858811274080824</v>
+        <v>0.02576389077275629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H11">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J11">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1554283333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.466285</v>
+      </c>
+      <c r="O11">
+        <v>0.2461608390537786</v>
+      </c>
+      <c r="P11">
+        <v>0.2461608390537786</v>
+      </c>
+      <c r="Q11">
+        <v>2.956371605332778</v>
+      </c>
+      <c r="R11">
+        <v>26.607344447995</v>
+      </c>
+      <c r="S11">
+        <v>0.03939605823161724</v>
+      </c>
+      <c r="T11">
+        <v>0.03939605823161724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H12">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J12">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1021786666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.306536</v>
+      </c>
+      <c r="O12">
+        <v>0.1618262628224993</v>
+      </c>
+      <c r="P12">
+        <v>0.1618262628224993</v>
+      </c>
+      <c r="Q12">
+        <v>1.943520221350222</v>
+      </c>
+      <c r="R12">
+        <v>17.491681992152</v>
+      </c>
+      <c r="S12">
+        <v>0.02589898904336837</v>
+      </c>
+      <c r="T12">
+        <v>0.02589898904336837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H13">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J13">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.272157</v>
+      </c>
+      <c r="N13">
+        <v>0.8164709999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.4310307782216405</v>
+      </c>
+      <c r="P13">
+        <v>0.4310307782216405</v>
+      </c>
+      <c r="Q13">
+        <v>5.176644500633</v>
+      </c>
+      <c r="R13">
+        <v>46.58980050569699</v>
+      </c>
+      <c r="S13">
+        <v>0.0689830019417883</v>
+      </c>
+      <c r="T13">
+        <v>0.0689830019417883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H14">
+        <v>116.802773</v>
+      </c>
+      <c r="I14">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J14">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1016456666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.304937</v>
+      </c>
+      <c r="O14">
+        <v>0.1609821199020816</v>
+      </c>
+      <c r="P14">
+        <v>0.1609821199020816</v>
+      </c>
+      <c r="Q14">
+        <v>3.957498576700111</v>
+      </c>
+      <c r="R14">
+        <v>35.617487190301</v>
+      </c>
+      <c r="S14">
+        <v>0.05273689007768368</v>
+      </c>
+      <c r="T14">
+        <v>0.05273689007768369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H15">
+        <v>116.802773</v>
+      </c>
+      <c r="I15">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J15">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1554283333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.466285</v>
+      </c>
+      <c r="O15">
+        <v>0.2461608390537786</v>
+      </c>
+      <c r="P15">
+        <v>0.2461608390537786</v>
+      </c>
+      <c r="Q15">
+        <v>6.051486778700555</v>
+      </c>
+      <c r="R15">
+        <v>54.463381008305</v>
+      </c>
+      <c r="S15">
+        <v>0.08064098744944934</v>
+      </c>
+      <c r="T15">
+        <v>0.08064098744944935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H16">
+        <v>116.802773</v>
+      </c>
+      <c r="I16">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J16">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1021786666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.306536</v>
+      </c>
+      <c r="O16">
+        <v>0.1618262628224993</v>
+      </c>
+      <c r="P16">
+        <v>0.1618262628224993</v>
+      </c>
+      <c r="Q16">
+        <v>3.978250536036444</v>
+      </c>
+      <c r="R16">
+        <v>35.804254824328</v>
+      </c>
+      <c r="S16">
+        <v>0.05301342682866573</v>
+      </c>
+      <c r="T16">
+        <v>0.05301342682866574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="H11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="I11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="J11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.235003225143768</v>
-      </c>
-      <c r="N11">
-        <v>0.235003225143768</v>
-      </c>
-      <c r="O11">
-        <v>0.7951985337078483</v>
-      </c>
-      <c r="P11">
-        <v>0.7951985337078483</v>
-      </c>
-      <c r="Q11">
-        <v>0.06447764972587884</v>
-      </c>
-      <c r="R11">
-        <v>0.06447764972587884</v>
-      </c>
-      <c r="S11">
-        <v>0.00188656832915473</v>
-      </c>
-      <c r="T11">
-        <v>0.00188656832915473</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H17">
+        <v>116.802773</v>
+      </c>
+      <c r="I17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.272157</v>
+      </c>
+      <c r="N17">
+        <v>0.8164709999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4310307782216405</v>
+      </c>
+      <c r="P17">
+        <v>0.4310307782216405</v>
+      </c>
+      <c r="Q17">
+        <v>10.596230763787</v>
+      </c>
+      <c r="R17">
+        <v>95.36607687408299</v>
+      </c>
+      <c r="S17">
+        <v>0.1412034006323157</v>
+      </c>
+      <c r="T17">
+        <v>0.1412034006323158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.105321</v>
+      </c>
+      <c r="I18">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J18">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1016456666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.304937</v>
+      </c>
+      <c r="O18">
+        <v>0.1609821199020816</v>
+      </c>
+      <c r="P18">
+        <v>0.1609821199020816</v>
+      </c>
+      <c r="Q18">
+        <v>0.03745036330855556</v>
+      </c>
+      <c r="R18">
+        <v>0.337053269777</v>
+      </c>
+      <c r="S18">
+        <v>0.0004990565770005769</v>
+      </c>
+      <c r="T18">
+        <v>0.000499056577000577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.105321</v>
+      </c>
+      <c r="I19">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J19">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1554283333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.466285</v>
+      </c>
+      <c r="O19">
+        <v>0.2461608390537786</v>
+      </c>
+      <c r="P19">
+        <v>0.2461608390537786</v>
+      </c>
+      <c r="Q19">
+        <v>0.05726606694277778</v>
+      </c>
+      <c r="R19">
+        <v>0.515394602485</v>
+      </c>
+      <c r="S19">
+        <v>0.0007631169586069056</v>
+      </c>
+      <c r="T19">
+        <v>0.0007631169586069056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.105321</v>
+      </c>
+      <c r="I20">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J20">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1021786666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.306536</v>
+      </c>
+      <c r="O20">
+        <v>0.1618262628224993</v>
+      </c>
+      <c r="P20">
+        <v>0.1618262628224993</v>
+      </c>
+      <c r="Q20">
+        <v>0.03764674200622221</v>
+      </c>
+      <c r="R20">
+        <v>0.338820678056</v>
+      </c>
+      <c r="S20">
+        <v>0.000501673483006158</v>
+      </c>
+      <c r="T20">
+        <v>0.0005016734830061582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.105321</v>
+      </c>
+      <c r="I21">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J21">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.272157</v>
+      </c>
+      <c r="N21">
+        <v>0.8164709999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.4310307782216405</v>
+      </c>
+      <c r="P21">
+        <v>0.4310307782216405</v>
+      </c>
+      <c r="Q21">
+        <v>0.100273615799</v>
+      </c>
+      <c r="R21">
+        <v>0.902462542191</v>
+      </c>
+      <c r="S21">
+        <v>0.001336227556774802</v>
+      </c>
+      <c r="T21">
+        <v>0.001336227556774803</v>
       </c>
     </row>
   </sheetData>
